--- a/rapport journalier/Rapport_journalier_Samuel.xlsx
+++ b/rapport journalier/Rapport_journalier_Samuel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\cours analyse projet final\mypetsitter\rapport journalier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B8D98DD-D04A-438F-AF67-834B7B052559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4829DA9-1D5E-47A5-9176-AD939A91DA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -68,10 +67,31 @@
     <t>DATE : 28 juillet</t>
   </si>
   <si>
-    <t>fin base de donnée</t>
-  </si>
-  <si>
     <t>JOUR:Mardi</t>
+  </si>
+  <si>
+    <t>base de donnée</t>
+  </si>
+  <si>
+    <t>fin bd + aide front end react</t>
+  </si>
+  <si>
+    <t>Bd hotfix +</t>
+  </si>
+  <si>
+    <t>DATE : 29 juillet</t>
+  </si>
+  <si>
+    <t>DATE : 30 juillet</t>
+  </si>
+  <si>
+    <t>JOUR:Jeudi</t>
+  </si>
+  <si>
+    <t>DATE : 31 juillet</t>
+  </si>
+  <si>
+    <t>JOUR:Vendredi</t>
   </si>
 </sst>
 </file>
@@ -454,8 +474,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -611,7 +631,7 @@
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -626,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" s="7"/>
     </row>
@@ -678,17 +698,17 @@
     </row>
     <row r="33" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B33" s="15" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="18"/>
@@ -697,6 +717,9 @@
       <c r="B34" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="12.75" x14ac:dyDescent="0.35">
@@ -711,7 +734,9 @@
       <c r="B37" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -745,17 +770,17 @@
     </row>
     <row r="43" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B43" s="15" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="18"/>
@@ -763,6 +788,9 @@
     <row r="44" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B44" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
       </c>
       <c r="J44" s="7"/>
     </row>
@@ -812,17 +840,17 @@
     </row>
     <row r="53" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B53" s="15" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="18"/>

--- a/rapport journalier/Rapport_journalier_Samuel.xlsx
+++ b/rapport journalier/Rapport_journalier_Samuel.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\cours analyse projet final\mypetsitter\rapport journalier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4829DA9-1D5E-47A5-9176-AD939A91DA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755CAB3-84FF-4B1E-B71B-9BD4411D20CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -76,9 +76,6 @@
     <t>fin bd + aide front end react</t>
   </si>
   <si>
-    <t>Bd hotfix +</t>
-  </si>
-  <si>
     <t>DATE : 29 juillet</t>
   </si>
   <si>
@@ -92,6 +89,36 @@
   </si>
   <si>
     <t>JOUR:Vendredi</t>
+  </si>
+  <si>
+    <t>Bd hotfix</t>
+  </si>
+  <si>
+    <t>Debut models</t>
+  </si>
+  <si>
+    <t>DATE : 3 aout</t>
+  </si>
+  <si>
+    <t>DATE : 4 aout</t>
+  </si>
+  <si>
+    <t>DATE : 5 aout</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Models + debut controllers</t>
+  </si>
+  <si>
+    <t>app.post get etc, Nassim m a expliqué et donné un exemple a regarder et approfondir ce soir</t>
+  </si>
+  <si>
+    <t>DATE : 6 aout</t>
+  </si>
+  <si>
+    <t>DATE : 7 aout</t>
   </si>
 </sst>
 </file>
@@ -474,8 +501,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -698,7 +725,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B33" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -770,12 +797,12 @@
     </row>
     <row r="43" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B43" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -790,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J44" s="7"/>
     </row>
@@ -840,12 +867,12 @@
     </row>
     <row r="53" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B53" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -858,6 +885,9 @@
     <row r="54" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B54" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
       </c>
       <c r="J54" s="7"/>
     </row>
@@ -907,17 +937,17 @@
     </row>
     <row r="63" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B63" s="15" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="18"/>
@@ -925,6 +955,9 @@
     <row r="64" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B64" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
       </c>
       <c r="J64" s="7"/>
     </row>
@@ -974,17 +1007,17 @@
     </row>
     <row r="73" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B73" s="15" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="17" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="18"/>
@@ -992,6 +1025,9 @@
     <row r="74" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B74" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
       </c>
       <c r="J74" s="7"/>
     </row>
@@ -1041,12 +1077,12 @@
     </row>
     <row r="83" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B83" s="15" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="17" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
@@ -1060,6 +1096,9 @@
       <c r="B84" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
       <c r="J84" s="7"/>
     </row>
     <row r="85" spans="2:10" ht="12.75" x14ac:dyDescent="0.35">
@@ -1074,7 +1113,9 @@
       <c r="B87" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="10"/>
+      <c r="C87" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
@@ -1108,12 +1149,12 @@
     </row>
     <row r="93" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B93" s="15" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="17" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -1175,12 +1216,12 @@
     </row>
     <row r="103" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B103" s="15" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="17" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>

--- a/rapport journalier/Rapport_journalier_Samuel.xlsx
+++ b/rapport journalier/Rapport_journalier_Samuel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\cours analyse projet final\mypetsitter\rapport journalier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755CAB3-84FF-4B1E-B71B-9BD4411D20CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3649F-7352-4D50-9013-2B68905330A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>DATE : 7 aout</t>
+  </si>
+  <si>
+    <t>difficulte avec git pour reccuperer le code de nassim et vice versa</t>
+  </si>
+  <si>
+    <t>controller animal(90%), requete sql pour animal (50%)</t>
+  </si>
+  <si>
+    <t>fin controller animal, controller facture, controller contrat, controller feedback</t>
+  </si>
+  <si>
+    <t>DATE : 10 aout</t>
+  </si>
+  <si>
+    <t>routers animal facture contrat feedback</t>
+  </si>
+  <si>
+    <t>DIFICULTE:Pas beaucoup avancé, je bloque a savoir quoi faire pour la suite, j'ai contacté richard pour de l'aide</t>
+  </si>
+  <si>
+    <t>router + controller fix</t>
+  </si>
+  <si>
+    <t>DATE : Samuel</t>
   </si>
 </sst>
 </file>
@@ -501,8 +525,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1087,7 +1111,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="18"/>
@@ -1159,7 +1183,7 @@
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="18"/>
@@ -1168,6 +1192,9 @@
       <c r="B94" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
       <c r="J94" s="7"/>
     </row>
     <row r="95" spans="2:10" ht="12.75" x14ac:dyDescent="0.35">
@@ -1182,7 +1209,9 @@
       <c r="B97" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="10"/>
+      <c r="C97" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
@@ -1226,7 +1255,7 @@
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I103" s="16"/>
       <c r="J103" s="18"/>
@@ -1234,6 +1263,9 @@
     <row r="104" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B104" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
       </c>
       <c r="J104" s="7"/>
     </row>
@@ -1283,17 +1315,17 @@
     </row>
     <row r="113" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B113" s="15" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="17" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
       <c r="H113" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I113" s="16"/>
       <c r="J113" s="18"/>
@@ -1302,6 +1334,9 @@
       <c r="B114" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="C114" t="s">
+        <v>37</v>
+      </c>
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="2:10" ht="12.75" x14ac:dyDescent="0.35">
@@ -1314,7 +1349,7 @@
     </row>
     <row r="117" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B117" s="20" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -1350,17 +1385,17 @@
     </row>
     <row r="123" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B123" s="15" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="17" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
       <c r="H123" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I123" s="16"/>
       <c r="J123" s="18"/>
@@ -1368,6 +1403,9 @@
     <row r="124" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B124" s="19" t="s">
         <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>39</v>
       </c>
       <c r="J124" s="7"/>
     </row>

--- a/rapport journalier/Rapport_journalier_Samuel.xlsx
+++ b/rapport journalier/Rapport_journalier_Samuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\cours analyse projet final\mypetsitter\rapport journalier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3649F-7352-4D50-9013-2B68905330A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB02ECCB-48AA-47A7-B7A4-825BE4EEE42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2543" yWindow="1402" windowWidth="18000" windowHeight="9331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>DATE : Samuel</t>
+  </si>
+  <si>
+    <t>DATE : 12 aout</t>
+  </si>
+  <si>
+    <t>controller animal</t>
+  </si>
+  <si>
+    <t>DIFICULTE: mauvaise implementation du controller, plusieurs modification et ajouts a faire</t>
   </si>
 </sst>
 </file>
@@ -525,8 +534,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1455,17 +1464,17 @@
     </row>
     <row r="133" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B133" s="15" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="17" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
       <c r="H133" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I133" s="16"/>
       <c r="J133" s="18"/>
@@ -1474,6 +1483,9 @@
       <c r="B134" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="C134" t="s">
+        <v>42</v>
+      </c>
       <c r="J134" s="7"/>
     </row>
     <row r="135" spans="2:10" ht="12.75" x14ac:dyDescent="0.35">
@@ -1486,7 +1498,7 @@
     </row>
     <row r="137" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B137" s="20" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>

--- a/rapport journalier/Rapport_journalier_Samuel.xlsx
+++ b/rapport journalier/Rapport_journalier_Samuel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\cours analyse projet final\mypetsitter\rapport journalier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB02ECCB-48AA-47A7-B7A4-825BE4EEE42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C69E47-C4CE-4822-94C3-E2CF80E4F9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2543" yWindow="1402" windowWidth="18000" windowHeight="9331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">DATE : </t>
-  </si>
-  <si>
-    <t>JOUR:</t>
-  </si>
-  <si>
-    <t>NOM:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>FUNTIONALITE :</t>
   </si>
@@ -152,6 +143,30 @@
   </si>
   <si>
     <t>DIFICULTE: mauvaise implementation du controller, plusieurs modification et ajouts a faire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 13 aout </t>
+  </si>
+  <si>
+    <t>FUNTIONALITE :Fin controller et route animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: 14 aout </t>
+  </si>
+  <si>
+    <t>Jour: Vendredi</t>
+  </si>
+  <si>
+    <t>Nom: Samuel</t>
+  </si>
+  <si>
+    <t>Fonctionalité: controller favoris + controller creation ou fin contrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFICULTE: </t>
+  </si>
+  <si>
+    <t>Difficutlé</t>
   </si>
 </sst>
 </file>
@@ -532,37 +547,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B3:J151"/>
+  <dimension ref="B3:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -576,11 +591,11 @@
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -614,27 +629,27 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J14" s="7"/>
     </row>
@@ -648,10 +663,10 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -686,27 +701,27 @@
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J24" s="7"/>
     </row>
@@ -720,10 +735,10 @@
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -758,27 +773,27 @@
     </row>
     <row r="33" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B33" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="18"/>
     </row>
     <row r="34" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B34" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J34" s="7"/>
     </row>
@@ -792,10 +807,10 @@
     </row>
     <row r="37" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B37" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -830,27 +845,27 @@
     </row>
     <row r="43" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B43" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="18"/>
     </row>
     <row r="44" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B44" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J44" s="7"/>
     </row>
@@ -864,7 +879,7 @@
     </row>
     <row r="47" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B47" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -900,27 +915,27 @@
     </row>
     <row r="53" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B53" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B54" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J54" s="7"/>
     </row>
@@ -934,7 +949,7 @@
     </row>
     <row r="57" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -970,27 +985,27 @@
     </row>
     <row r="63" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B63" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="18"/>
     </row>
     <row r="64" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B64" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J64" s="7"/>
     </row>
@@ -1004,7 +1019,7 @@
     </row>
     <row r="67" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B67" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -1040,27 +1055,27 @@
     </row>
     <row r="73" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B73" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="18"/>
     </row>
     <row r="74" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B74" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J74" s="7"/>
     </row>
@@ -1074,7 +1089,7 @@
     </row>
     <row r="77" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B77" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -1110,27 +1125,27 @@
     </row>
     <row r="83" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B83" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="18"/>
     </row>
     <row r="84" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B84" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J84" s="7"/>
     </row>
@@ -1144,10 +1159,10 @@
     </row>
     <row r="87" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B87" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
@@ -1182,27 +1197,27 @@
     </row>
     <row r="93" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B93" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="18"/>
     </row>
     <row r="94" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B94" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J94" s="7"/>
     </row>
@@ -1216,10 +1231,10 @@
     </row>
     <row r="97" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B97" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -1254,27 +1269,27 @@
     </row>
     <row r="103" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B103" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I103" s="16"/>
       <c r="J103" s="18"/>
     </row>
     <row r="104" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B104" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J104" s="7"/>
     </row>
@@ -1288,7 +1303,7 @@
     </row>
     <row r="107" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B107" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -1324,27 +1339,27 @@
     </row>
     <row r="113" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B113" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
       <c r="H113" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I113" s="16"/>
       <c r="J113" s="18"/>
     </row>
     <row r="114" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B114" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J114" s="7"/>
     </row>
@@ -1358,7 +1373,7 @@
     </row>
     <row r="117" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B117" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -1394,27 +1409,27 @@
     </row>
     <row r="123" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B123" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
       <c r="H123" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I123" s="16"/>
       <c r="J123" s="18"/>
     </row>
     <row r="124" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B124" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J124" s="7"/>
     </row>
@@ -1428,7 +1443,7 @@
     </row>
     <row r="127" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B127" s="20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
@@ -1464,27 +1479,27 @@
     </row>
     <row r="133" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B133" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
       <c r="H133" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I133" s="16"/>
       <c r="J133" s="18"/>
     </row>
     <row r="134" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B134" s="19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J134" s="7"/>
     </row>
@@ -1498,7 +1513,7 @@
     </row>
     <row r="137" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B137" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -1534,24 +1549,24 @@
     </row>
     <row r="143" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B143" s="15" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="E143" s="17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
       <c r="H143" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I143" s="16"/>
       <c r="J143" s="18"/>
     </row>
     <row r="144" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B144" s="19" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="J144" s="7"/>
     </row>
@@ -1565,7 +1580,7 @@
     </row>
     <row r="147" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B147" s="20" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
@@ -1599,6 +1614,27 @@
       <c r="I151" s="13"/>
       <c r="J151" s="14"/>
     </row>
+    <row r="153" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+      <c r="E153" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rapport journalier/Rapport_journalier_Samuel.xlsx
+++ b/rapport journalier/Rapport_journalier_Samuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\cours analyse projet final\mypetsitter\rapport journalier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C69E47-C4CE-4822-94C3-E2CF80E4F9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A125AFA-00A4-4511-BC14-4FF9930C6EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2543" yWindow="1402" windowWidth="18000" windowHeight="9331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>FUNTIONALITE :</t>
   </si>
@@ -167,6 +167,42 @@
   </si>
   <si>
     <t>Difficutlé</t>
+  </si>
+  <si>
+    <t>Jour: Lundi</t>
+  </si>
+  <si>
+    <t>Fonctionnalite: controllers fincontrat</t>
+  </si>
+  <si>
+    <t>Difficulté: recherche en cascade</t>
+  </si>
+  <si>
+    <t>Date: 17 aout</t>
+  </si>
+  <si>
+    <t>Date: 18 aout</t>
+  </si>
+  <si>
+    <t>Date 19 aout</t>
+  </si>
+  <si>
+    <t>Jour: Mardi</t>
+  </si>
+  <si>
+    <t>Jour: Mercredi</t>
+  </si>
+  <si>
+    <t>Fonctionnalité: Test routes et requetes</t>
+  </si>
+  <si>
+    <t>Fonctionnalite: favoris controllers</t>
+  </si>
+  <si>
+    <t>Date 20 aout</t>
+  </si>
+  <si>
+    <t>Jour: Jeudi</t>
   </si>
 </sst>
 </file>
@@ -547,10 +583,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B3:J156"/>
+  <dimension ref="B3:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1635,6 +1671,70 @@
         <v>48</v>
       </c>
     </row>
+    <row r="160" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>52</v>
+      </c>
+      <c r="E160" t="s">
+        <v>49</v>
+      </c>
+      <c r="H160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>53</v>
+      </c>
+      <c r="E168" t="s">
+        <v>55</v>
+      </c>
+      <c r="H168" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>54</v>
+      </c>
+      <c r="E175" t="s">
+        <v>56</v>
+      </c>
+      <c r="H175" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>59</v>
+      </c>
+      <c r="E184" t="s">
+        <v>60</v>
+      </c>
+      <c r="H184" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rapport journalier/Rapport_journalier_Samuel.xlsx
+++ b/rapport journalier/Rapport_journalier_Samuel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\cours analyse projet final\mypetsitter\rapport journalier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A125AFA-00A4-4511-BC14-4FF9930C6EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22FDE0-EB27-4569-8915-C500326E090D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>FUNTIONALITE :</t>
   </si>
@@ -203,6 +203,51 @@
   </si>
   <si>
     <t>Jour: Jeudi</t>
+  </si>
+  <si>
+    <t>Date 24 aout</t>
+  </si>
+  <si>
+    <t>Date 25 aout</t>
+  </si>
+  <si>
+    <t>Date 26 aout</t>
+  </si>
+  <si>
+    <t>Date 27 aout</t>
+  </si>
+  <si>
+    <t>Nom:Samuel</t>
+  </si>
+  <si>
+    <t>Fonctionalité</t>
+  </si>
+  <si>
+    <t>css page recherche</t>
+  </si>
+  <si>
+    <t>css fin recherche debut profil</t>
+  </si>
+  <si>
+    <t>css profil</t>
+  </si>
+  <si>
+    <t>correction orthographe</t>
+  </si>
+  <si>
+    <t>correction orthogrphe</t>
+  </si>
+  <si>
+    <t>fix css</t>
+  </si>
+  <si>
+    <t>difficulté</t>
+  </si>
+  <si>
+    <t>probleme avec git</t>
+  </si>
+  <si>
+    <t>meme probleme avec git</t>
   </si>
 </sst>
 </file>
@@ -583,10 +628,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B3:J184"/>
+  <dimension ref="B3:J211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="K188" sqref="K188"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1735,6 +1780,118 @@
         <v>45</v>
       </c>
     </row>
+    <row r="194" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B194" t="s">
+        <v>61</v>
+      </c>
+      <c r="E194" t="s">
+        <v>49</v>
+      </c>
+      <c r="H194" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C196" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>62</v>
+      </c>
+      <c r="E198" t="s">
+        <v>55</v>
+      </c>
+      <c r="H198" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B199" t="s">
+        <v>66</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C200" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B202" t="s">
+        <v>63</v>
+      </c>
+      <c r="E202" t="s">
+        <v>56</v>
+      </c>
+      <c r="H202" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B203" t="s">
+        <v>66</v>
+      </c>
+      <c r="C203" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C204" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B205" t="s">
+        <v>73</v>
+      </c>
+      <c r="C205" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" t="s">
+        <v>60</v>
+      </c>
+      <c r="H208" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
+        <v>66</v>
+      </c>
+      <c r="C209" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C210" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
